--- a/CProgrammierung/Implementation/VergleichFloom.xlsx
+++ b/CProgrammierung/Implementation/VergleichFloom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universität\TU Bergakademie Freiberg\Seminar\CProgrammierung\Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945B295-1DD0-43CF-AA34-2AB7AD1C3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7EA6F6-05D7-4C8D-BF9D-EA9CC0507391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{820E809E-842E-42D2-918E-2E4CDC5E5D98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{820E809E-842E-42D2-918E-2E4CDC5E5D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -66,12 +66,27 @@
   <si>
     <t>Verbesserung Floom ggü. Big Bloom</t>
   </si>
+  <si>
+    <t>Verbesserung in</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>Fällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Größte Verbesserung Floom: </t>
+  </si>
+  <si>
+    <t>Größte Verschlechterung Floom:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +102,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,35 +156,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -174,6 +217,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -188,7 +249,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6339A6C9-3181-4A44-B96E-759AC288BB5A}" name="Tabelle1" displayName="Tabelle1" ref="A1:J301" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6339A6C9-3181-4A44-B96E-759AC288BB5A}" name="Tabelle1" displayName="Tabelle1" ref="A1:J301" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:J301" xr:uid="{6339A6C9-3181-4A44-B96E-759AC288BB5A}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CA095A1C-44D2-400D-A9DD-93AD9CAAD006}" name="n"/>
@@ -511,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF62F80-FCF7-49D4-867E-DD9546577917}">
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:N305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="XEV33" sqref="XEV33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10893,7 +10954,7 @@
         <v>-98.114814814816683</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>200000</v>
       </c>
@@ -10929,7 +10990,7 @@
         <v>-91.7</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>300000</v>
       </c>
@@ -10964,8 +11025,9 @@
         <f t="shared" si="22"/>
         <v>-80.119047619046668</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N290" s="2"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>500000</v>
       </c>
@@ -11000,8 +11062,9 @@
         <f t="shared" si="22"/>
         <v>-63.7</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N291" s="2"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>500</v>
       </c>
@@ -11036,8 +11099,9 @@
         <f t="shared" si="22"/>
         <v>-8.832416208103993</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N292" s="2"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1000</v>
       </c>
@@ -11072,8 +11136,9 @@
         <f t="shared" si="22"/>
         <v>-16.190190190189995</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N293" s="2"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10000</v>
       </c>
@@ -11108,8 +11173,9 @@
         <f t="shared" si="22"/>
         <v>-80.783838383837988</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N294" s="2"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>20000</v>
       </c>
@@ -11144,8 +11210,9 @@
         <f t="shared" si="22"/>
         <v>-96.110204081631991</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N295" s="2"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>30000</v>
       </c>
@@ -11180,8 +11247,9 @@
         <f t="shared" si="22"/>
         <v>-98.79793814432999</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N296" s="2"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>50000</v>
       </c>
@@ -11217,7 +11285,7 @@
         <v>-100.74736842105199</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>100000</v>
       </c>
@@ -11253,7 +11321,7 @@
         <v>-100.45111111111</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>200000</v>
       </c>
@@ -11289,7 +11357,7 @@
         <v>-91.782499999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>300000</v>
       </c>
@@ -11325,7 +11393,7 @@
         <v>-81.777142857141996</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>500000</v>
       </c>
@@ -11361,20 +11429,57 @@
         <v>-63.691999999999993</v>
       </c>
     </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I303" t="s">
+        <v>10</v>
+      </c>
+      <c r="J303" s="5">
+        <f>COUNTIF(J2:J301, "&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="K303" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L303" s="5">
+        <f>COUNT(Tabelle1[Verbesserung Floom ggü. Big Bloom])</f>
+        <v>300</v>
+      </c>
+      <c r="M303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I304" t="s">
+        <v>13</v>
+      </c>
+      <c r="J304" s="3">
+        <f>MAX(J2:J301)</f>
+        <v>3.2285714285799849</v>
+      </c>
+    </row>
+    <row r="305" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I305" t="s">
+        <v>14</v>
+      </c>
+      <c r="J305" s="4">
+        <f>MIN(J2:J301)</f>
+        <v>-100.74736842105199</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:J301">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I301">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
